--- a/Projects/CCBOTTLERSUS_SAND/ARA/Data/ARA Template v0.1.xlsx
+++ b/Projects/CCBOTTLERSUS_SAND/ARA/Data/ARA Template v0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,14 +13,14 @@
     <sheet name="Min Shelves" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Min Facings" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Location" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Min Skus" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="% of Scenes" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Min SKUs" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Ratio" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Targets" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">Displays</t>
   </si>
   <si>
-    <t xml:space="preserve">% of Scenes</t>
+    <t xml:space="preserve">Ratio</t>
   </si>
   <si>
     <t xml:space="preserve">ARA</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">RTD Protein</t>
   </si>
   <si>
-    <t xml:space="preserve">Min Skus</t>
+    <t xml:space="preserve">Min SKUs</t>
   </si>
   <si>
     <t xml:space="preserve">numerator param 1</t>
@@ -399,7 +399,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -863,11 +863,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -880,7 +880,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1181,11 +1181,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1233,11 +1233,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1249,8 +1249,8 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1294,7 +1294,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>39</v>
       </c>
@@ -1307,11 +1307,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1391,11 +1391,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1407,7 +1407,7 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1466,11 +1466,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1537,11 +1537,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1722,11 +1722,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Projects/CCBOTTLERSUS_SAND/ARA/Data/ARA Template v0.1.xlsx
+++ b/Projects/CCBOTTLERSUS_SAND/ARA/Data/ARA Template v0.1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="88">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -56,105 +56,117 @@
     <t xml:space="preserve">Session Level</t>
   </si>
   <si>
+    <t xml:space="preserve">SSD POI Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Displays</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio</t>
+    <t xml:space="preserve">UNITED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still POI Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD POI FEMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers At Checkout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still POI FEMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cold Vault,CDE Outside of Impluse Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isotonic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein Drinks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOS/Full Throttle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Shelves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 16 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTD Coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espresso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cafe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTD Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Enhanced Water</t>
   </si>
   <si>
     <t xml:space="preserve">ARA</t>
   </si>
   <si>
-    <t xml:space="preserve">UNITED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers At Checkout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARA SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cold Vault,CDE Outside of Impluse Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isotonic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enhanced Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein Drinks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOS/Full Throttle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Shelves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 16 oz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTD Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espresso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cafe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTD Protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min SKUs</t>
-  </si>
-  <si>
     <t xml:space="preserve">numerator param 1</t>
   </si>
   <si>
@@ -270,9 +282,6 @@
   </si>
   <si>
     <t xml:space="preserve">Monster Energy Muscle Peanut Butter Cup Energy Shakes 15oz 4pack,Monster Energy Muscle Vanilla Energy Shakes,Monster Energy Muscle Monster Vanilla 16oz,Monster Energy Muscle Monster Chocolate 16oz,MONSTER Muscle Monster Chocolate 12/15oz,MONSTER Muscle Monster Vanilla 12/15oz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">position</t>
   </si>
   <si>
     <t xml:space="preserve">handle</t>
@@ -296,6 +305,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -396,21 +406,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.2091836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.4948979591837"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.780612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -476,47 +486,47 @@
         <v>12</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="I4" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>20</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>14</v>
@@ -524,19 +534,19 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>20</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>14</v>
@@ -547,16 +557,16 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>14</v>
@@ -567,16 +577,16 @@
         <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>14</v>
@@ -587,16 +597,16 @@
         <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>14</v>
@@ -607,16 +617,16 @@
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>14</v>
@@ -627,16 +637,16 @@
         <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>14</v>
@@ -647,16 +657,16 @@
         <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>14</v>
@@ -667,56 +677,56 @@
         <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="B15" s="0" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>14</v>
@@ -724,19 +734,19 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>14</v>
@@ -744,19 +754,19 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>14</v>
@@ -764,19 +774,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="D18" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>14</v>
@@ -787,16 +797,16 @@
         <v>40</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>14</v>
@@ -804,19 +814,19 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>14</v>
@@ -824,13 +834,19 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>14</v>
@@ -838,13 +854,19 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>14</v>
@@ -852,12 +874,68 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="C23" s="0" t="s">
+        <v>45</v>
+      </c>
       <c r="I23" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="0" t="s">
         <v>14</v>
       </c>
     </row>
@@ -880,23 +958,23 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7142857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.8367346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.5255102040816"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.8265306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.9030612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.2091836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.219387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -904,276 +982,276 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,7 +1260,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1203,10 +1281,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,27 +1292,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1255,10 +1333,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1266,49 +1344,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1324,17 +1402,17 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.9030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1342,57 +1420,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1408,15 +1486,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.2857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.219387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,50 +1502,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1480,17 +1553,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1498,13 +1571,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1512,12 +1591,18 @@
         <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -1526,19 +1611,65 @@
         <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>0.8</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1551,16 +1682,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1571,57 +1702,53 @@
         <v>7</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1"/>
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="0" t="n">
         <v>0.67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1"/>
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="C3" s="0" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="0" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1"/>
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="C5" s="0" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="0" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="0" t="n">
@@ -1630,16 +1757,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="0" t="n">
@@ -1648,7 +1775,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="0" t="n">
@@ -1657,7 +1784,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="0" t="n">
@@ -1665,65 +1792,101 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>30</v>
-      </c>
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>33</v>
-      </c>
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="0" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>35</v>
-      </c>
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="0" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>38</v>
-      </c>
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="0" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
